--- a/data/georgia_census/qvemo-qartli/dmanisi/education_graduates.xlsx
+++ b/data/georgia_census/qvemo-qartli/dmanisi/education_graduates.xlsx
@@ -1839,13 +1839,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BF805EE-9FA7-4553-AD64-0CDE9519A7C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E964B29-2D19-49E3-94DD-58E54D38FFBA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41825DD3-0F8D-4315-86DE-7984739034E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F793996C-47B2-44F2-ADFA-2170E590BB49}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14EC6E85-0E64-4B07-A97A-64D921591360}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72C018DA-F68C-407C-831D-50A8A154FA89}"/>
 </file>